--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H2">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I2">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J2">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N2">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O2">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P2">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q2">
-        <v>519.4640832745782</v>
+        <v>250.0261967986737</v>
       </c>
       <c r="R2">
-        <v>4675.176749471204</v>
+        <v>2250.235771188063</v>
       </c>
       <c r="S2">
-        <v>0.004814820376968062</v>
+        <v>0.001615097620895731</v>
       </c>
       <c r="T2">
-        <v>0.004814820376968062</v>
+        <v>0.001615097620895731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H3">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I3">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J3">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P3">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q3">
-        <v>873.753983254633</v>
+        <v>695.1972734365932</v>
       </c>
       <c r="R3">
-        <v>7863.785849291698</v>
+        <v>6256.775460929339</v>
       </c>
       <c r="S3">
-        <v>0.008098670569313834</v>
+        <v>0.004490775273779618</v>
       </c>
       <c r="T3">
-        <v>0.008098670569313836</v>
+        <v>0.004490775273779619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H4">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I4">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J4">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N4">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O4">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P4">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q4">
-        <v>545.3393062368211</v>
+        <v>689.4567900190615</v>
       </c>
       <c r="R4">
-        <v>4908.05375613139</v>
+        <v>6205.111110171553</v>
       </c>
       <c r="S4">
-        <v>0.005054653225452691</v>
+        <v>0.004453693395043877</v>
       </c>
       <c r="T4">
-        <v>0.005054653225452691</v>
+        <v>0.004453693395043879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H5">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I5">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J5">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N5">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O5">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P5">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q5">
-        <v>509.983928712716</v>
+        <v>374.7145902361275</v>
       </c>
       <c r="R5">
-        <v>4589.855358414445</v>
+        <v>3372.431312125148</v>
       </c>
       <c r="S5">
-        <v>0.004726950507171628</v>
+        <v>0.002420548930289126</v>
       </c>
       <c r="T5">
-        <v>0.004726950507171628</v>
+        <v>0.002420548930289127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J6">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N6">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O6">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P6">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q6">
-        <v>18959.5811239984</v>
+        <v>11469.37721574079</v>
       </c>
       <c r="R6">
-        <v>170636.2301159856</v>
+        <v>103224.3949416671</v>
       </c>
       <c r="S6">
-        <v>0.175732991892635</v>
+        <v>0.07408889185005957</v>
       </c>
       <c r="T6">
-        <v>0.175732991892635</v>
+        <v>0.07408889185005958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J7">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O7">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P7">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q7">
         <v>31890.57734945748</v>
@@ -883,10 +883,10 @@
         <v>287015.1961451173</v>
       </c>
       <c r="S7">
-        <v>0.2955881005045</v>
+        <v>0.2060039958435798</v>
       </c>
       <c r="T7">
-        <v>0.2955881005045001</v>
+        <v>0.2060039958435799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J8">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N8">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O8">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P8">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q8">
-        <v>19903.98402816392</v>
+        <v>31627.24586435957</v>
       </c>
       <c r="R8">
-        <v>179135.8562534753</v>
+        <v>284645.2127792361</v>
       </c>
       <c r="S8">
-        <v>0.1844864947688684</v>
+        <v>0.2043029498710611</v>
       </c>
       <c r="T8">
-        <v>0.1844864947688684</v>
+        <v>0.2043029498710611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J9">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N9">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O9">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P9">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q9">
-        <v>18613.57113934146</v>
+        <v>17189.17072965966</v>
       </c>
       <c r="R9">
-        <v>167522.1402540731</v>
+        <v>154702.5365669369</v>
       </c>
       <c r="S9">
-        <v>0.1725258867656381</v>
+        <v>0.1110371197342914</v>
       </c>
       <c r="T9">
-        <v>0.1725258867656381</v>
+        <v>0.1110371197342915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H10">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N10">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O10">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P10">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q10">
-        <v>3391.440957778153</v>
+        <v>7532.191811301085</v>
       </c>
       <c r="R10">
-        <v>30522.96862000338</v>
+        <v>67789.72630170976</v>
       </c>
       <c r="S10">
-        <v>0.03143466421751253</v>
+        <v>0.04865580179327521</v>
       </c>
       <c r="T10">
-        <v>0.03143466421751253</v>
+        <v>0.04865580179327521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H11">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O11">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P11">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q11">
-        <v>5704.504202007046</v>
+        <v>20943.24225726784</v>
       </c>
       <c r="R11">
-        <v>51340.53781806341</v>
+        <v>188489.1803154106</v>
       </c>
       <c r="S11">
-        <v>0.05287403683269744</v>
+        <v>0.1352873465926978</v>
       </c>
       <c r="T11">
-        <v>0.05287403683269744</v>
+        <v>0.1352873465926978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H12">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N12">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O12">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P12">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q12">
-        <v>3560.373312817236</v>
+        <v>20770.30668993904</v>
       </c>
       <c r="R12">
-        <v>32043.35981535512</v>
+        <v>186932.7602094513</v>
       </c>
       <c r="S12">
-        <v>0.03300046822891603</v>
+        <v>0.1341702323585205</v>
       </c>
       <c r="T12">
-        <v>0.03300046822891603</v>
+        <v>0.1341702323585205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H13">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N13">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O13">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P13">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q13">
-        <v>3329.547584391312</v>
+        <v>11288.50578175324</v>
       </c>
       <c r="R13">
-        <v>29965.92825952181</v>
+        <v>101596.5520357792</v>
       </c>
       <c r="S13">
-        <v>0.03086098552638205</v>
+        <v>0.07292051419019174</v>
       </c>
       <c r="T13">
-        <v>0.03086098552638204</v>
+        <v>0.07292051419019177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H14">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I14">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J14">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N14">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O14">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P14">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q14">
-        <v>18.34028066491433</v>
+        <v>10.65264998940367</v>
       </c>
       <c r="R14">
-        <v>165.062525984229</v>
+        <v>95.873849904633</v>
       </c>
       <c r="S14">
-        <v>0.0001699928058704042</v>
+        <v>6.881306788814084E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001699928058704043</v>
+        <v>6.881306788814085E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H15">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I15">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J15">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O15">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P15">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q15">
-        <v>30.84889562327333</v>
+        <v>29.61966914799333</v>
       </c>
       <c r="R15">
-        <v>277.64006060946</v>
+        <v>266.57702233194</v>
       </c>
       <c r="S15">
-        <v>0.0002859329374950959</v>
+        <v>0.0001913345792767603</v>
       </c>
       <c r="T15">
-        <v>0.000285932937495096</v>
+        <v>0.0001913345792767604</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H16">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I16">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J16">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N16">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O16">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P16">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q16">
-        <v>19.25383535844245</v>
+        <v>29.37508933435812</v>
       </c>
       <c r="R16">
-        <v>173.284518225982</v>
+        <v>264.375804009223</v>
       </c>
       <c r="S16">
-        <v>0.0001784603821581549</v>
+        <v>0.0001897546637311927</v>
       </c>
       <c r="T16">
-        <v>0.000178460382158155</v>
+        <v>0.0001897546637311928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H17">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I17">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J17">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N17">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O17">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P17">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q17">
-        <v>18.00557283619344</v>
+        <v>15.96514056054089</v>
       </c>
       <c r="R17">
-        <v>162.050155525741</v>
+        <v>143.686265044868</v>
       </c>
       <c r="S17">
-        <v>0.0001668904584205147</v>
+        <v>0.0001031302354183244</v>
       </c>
       <c r="T17">
-        <v>0.0001668904584205147</v>
+        <v>0.0001031302354183244</v>
       </c>
     </row>
   </sheetData>
